--- a/biology/Zoologie/Aetosauria/Aetosauria.xlsx
+++ b/biology/Zoologie/Aetosauria/Aetosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stagonolepididae · Étosaures
 Les Aetosauria ou Étosaures (ce qui signifie « lézard aigle », ἀετός/aetos : aigle et σαυρος/sauros : lézard) forment un ordre fossile de reptiles diapsides herbivores, qui connut une brève période de prospérité au Trias supérieur.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les étosaures étaient protégés par une lourde cuirasse composée de plaques osseuses (ostéodermes), dotée de pointes. Ils possédaient parfois deux longues épines sur les côtés, pour se défendre des prédateurs comme les Rauisuchia ou les premiers dinosaures. Ces herbivores possédaient un museau particulièrement performant qui leur permettait d'extraire facilement les racines du sol. C'est peut-être grâce à cet avantage qu'ils purent se développer rapidement. La tête était plutôt petite comparée au corps massif, cela est particulièrement visible chez le genre Stagonolepis. Les pattes des étosaures sont semblables à celles des phytosaures et des crocodylomorphes de la même période : l'articulation de la cheville était complexe et permettait en plus du simple mouvement de charnière, une rotation du pied. Le plus connu d'entre eux est Desmatosuchus, d'environ 5 mètres de long et 1,50 mètre au garrot.
 </t>
@@ -546,7 +560,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'un des plus anciens genres connus, Aetosaurus, vivait au Norien. Au Carnien, on connaît un autre genre, le Coahomasuchus d'environ 1 mètre de long. Apparurent ensuite des étosaures plus grands, comme le Typothorax de 3 mètres de long, dont le corps était semblable à celui des tortues. D'autres enfin se dotèrent de grandes épines sur les épaules, comme le Desmatosuchus, qui atteignait 5 mètres de long.
 </t>
@@ -577,10 +593,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les fossiles d'étosaures ont été retrouvés en Écosse, en Allemagne, au Groenland, aux États-Unis, ainsi qu'en Argentine et à Madagascar. L'armure et ses ostéodermes sont généralement bien conservés. La distribution géographique des étosaures est vaste mais ces reptiles n'occupent qu'une faible épaisseur stratigraphique, signe que cet ordre n'a pas perduré longtemps.
-Genre</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles d'étosaures ont été retrouvés en Écosse, en Allemagne, au Groenland, aux États-Unis, ainsi qu'en Argentine et à Madagascar. L'armure et ses ostéodermes sont généralement bien conservés. La distribution géographique des étosaures est vaste mais ces reptiles n'occupent qu'une faible épaisseur stratigraphique, signe que cet ordre n'a pas perduré longtemps.
+</t>
         </is>
       </c>
     </row>
